--- a/templates/rr_schedules/rr_4.xlsx
+++ b/templates/rr_schedules/rr_4.xlsx
@@ -1,19 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victorprieto/Desktop/code/cornerstone/rr_schedules/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victorprieto/Desktop/code/cornerstone/templates/rr_schedules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A63A47-C8D4-3C41-B5A0-56323ADEF8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EDFDF0-E023-1943-A776-352D8CC42696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1140" windowWidth="30780" windowHeight="19420" xr2:uid="{9E58356C-D73F-FC43-AA9C-FFAB6CC6AEB1}"/>
+    <workbookView xWindow="1160" yWindow="1140" windowWidth="30780" windowHeight="19420" activeTab="10" xr2:uid="{9E58356C-D73F-FC43-AA9C-FFAB6CC6AEB1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="rr_4" sheetId="1" r:id="rId1"/>
+    <sheet name="rr_10" sheetId="2" r:id="rId2"/>
+    <sheet name="rr_13" sheetId="3" r:id="rId3"/>
+    <sheet name="rr_14" sheetId="4" r:id="rId4"/>
+    <sheet name="rr_12" sheetId="5" r:id="rId5"/>
+    <sheet name="rr_5" sheetId="6" r:id="rId6"/>
+    <sheet name="rr_6" sheetId="7" r:id="rId7"/>
+    <sheet name="rr_7" sheetId="8" r:id="rId8"/>
+    <sheet name="rr_8" sheetId="9" r:id="rId9"/>
+    <sheet name="rr_9" sheetId="10" r:id="rId10"/>
+    <sheet name="rr_11" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,13 +41,9 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -54,6 +60,18 @@
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="ArialMT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -77,10 +95,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,7 +432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E55A6BF-84DD-D44D-B32A-3A6F889734B0}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -514,4 +549,3139 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE162BEC-6A5B-D742-816D-73B4BF71F806}">
+  <dimension ref="A2:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="2" spans="1:9" ht="24">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="24">
+      <c r="A3" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="24">
+      <c r="A4" s="2">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="24">
+      <c r="A5" s="2">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="24">
+      <c r="A6" s="2">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="24">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>6</v>
+      </c>
+      <c r="I7" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="24">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2">
+        <v>8</v>
+      </c>
+      <c r="I8" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="24">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2">
+        <v>6</v>
+      </c>
+      <c r="H9" s="2">
+        <v>9</v>
+      </c>
+      <c r="I9" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="24">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2">
+        <v>7</v>
+      </c>
+      <c r="H10" s="2">
+        <v>8</v>
+      </c>
+      <c r="I10" s="2">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B73BF7-9FCF-DC4A-900D-01041586F35D}">
+  <dimension ref="A2:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="2" spans="1:11" ht="24">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4">
+        <v>9</v>
+      </c>
+      <c r="I2" s="5">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4">
+        <v>11</v>
+      </c>
+      <c r="K2" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="24">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3">
+        <v>4</v>
+      </c>
+      <c r="H3" s="4">
+        <v>11</v>
+      </c>
+      <c r="I3" s="5">
+        <v>6</v>
+      </c>
+      <c r="J3" s="4">
+        <v>10</v>
+      </c>
+      <c r="K3" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="24">
+      <c r="A4" s="3">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>10</v>
+      </c>
+      <c r="I4" s="5">
+        <v>4</v>
+      </c>
+      <c r="J4" s="4">
+        <v>8</v>
+      </c>
+      <c r="K4" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="24">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>8</v>
+      </c>
+      <c r="I5" s="5">
+        <v>2</v>
+      </c>
+      <c r="J5" s="4">
+        <v>6</v>
+      </c>
+      <c r="K5" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="24">
+      <c r="A6" s="3">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4">
+        <v>8</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3</v>
+      </c>
+      <c r="H6" s="4">
+        <v>6</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>4</v>
+      </c>
+      <c r="K6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="24">
+      <c r="A7" s="3">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6</v>
+      </c>
+      <c r="F7" s="4">
+        <v>7</v>
+      </c>
+      <c r="G7" s="3">
+        <v>4</v>
+      </c>
+      <c r="H7" s="4">
+        <v>5</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2</v>
+      </c>
+      <c r="J7" s="4">
+        <v>3</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="24">
+      <c r="A8" s="3">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4">
+        <v>9</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>7</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
+        <v>5</v>
+      </c>
+      <c r="K8" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="24">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>11</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>9</v>
+      </c>
+      <c r="I9" s="5">
+        <v>3</v>
+      </c>
+      <c r="J9" s="4">
+        <v>7</v>
+      </c>
+      <c r="K9" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="24">
+      <c r="A10" s="3">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3</v>
+      </c>
+      <c r="H10" s="4">
+        <v>11</v>
+      </c>
+      <c r="I10" s="5">
+        <v>5</v>
+      </c>
+      <c r="J10" s="4">
+        <v>9</v>
+      </c>
+      <c r="K10" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="24">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>8</v>
+      </c>
+      <c r="G11" s="3">
+        <v>5</v>
+      </c>
+      <c r="H11" s="4">
+        <v>10</v>
+      </c>
+      <c r="I11" s="5">
+        <v>7</v>
+      </c>
+      <c r="J11" s="4">
+        <v>11</v>
+      </c>
+      <c r="K11" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="24">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5</v>
+      </c>
+      <c r="F12" s="4">
+        <v>6</v>
+      </c>
+      <c r="G12" s="3">
+        <v>7</v>
+      </c>
+      <c r="H12" s="4">
+        <v>8</v>
+      </c>
+      <c r="I12" s="5">
+        <v>9</v>
+      </c>
+      <c r="J12" s="4">
+        <v>10</v>
+      </c>
+      <c r="K12" s="5">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F38709-7B3C-C042-B514-81EF5BCB2D32}">
+  <dimension ref="A2:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="2" spans="1:10" ht="24">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="24">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="24">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>9</v>
+      </c>
+      <c r="I4" s="2">
+        <v>5</v>
+      </c>
+      <c r="J4" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="24">
+      <c r="A5" s="2">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="24">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>6</v>
+      </c>
+      <c r="H6" s="2">
+        <v>7</v>
+      </c>
+      <c r="I6" s="2">
+        <v>4</v>
+      </c>
+      <c r="J6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="24">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>10</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="24">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>8</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="24">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>8</v>
+      </c>
+      <c r="J9" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="24">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2">
+        <v>7</v>
+      </c>
+      <c r="H10" s="2">
+        <v>8</v>
+      </c>
+      <c r="I10" s="2">
+        <v>9</v>
+      </c>
+      <c r="J10" s="2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C93979-D365-3343-B631-BA2867EAE756}">
+  <dimension ref="A2:M14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="2" spans="1:13" ht="24">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2">
+        <v>11</v>
+      </c>
+      <c r="L2" s="2">
+        <v>12</v>
+      </c>
+      <c r="M2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="24">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2">
+        <v>8</v>
+      </c>
+      <c r="J3" s="2">
+        <v>11</v>
+      </c>
+      <c r="K3" s="2">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2">
+        <v>13</v>
+      </c>
+      <c r="M3" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="24">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>11</v>
+      </c>
+      <c r="I4" s="2">
+        <v>6</v>
+      </c>
+      <c r="J4" s="2">
+        <v>13</v>
+      </c>
+      <c r="K4" s="2">
+        <v>8</v>
+      </c>
+      <c r="L4" s="2">
+        <v>12</v>
+      </c>
+      <c r="M4" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="24">
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2">
+        <v>4</v>
+      </c>
+      <c r="J5" s="2">
+        <v>12</v>
+      </c>
+      <c r="K5" s="2">
+        <v>6</v>
+      </c>
+      <c r="L5" s="2">
+        <v>10</v>
+      </c>
+      <c r="M5" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="24">
+      <c r="A6" s="2">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>12</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>10</v>
+      </c>
+      <c r="K6" s="2">
+        <v>4</v>
+      </c>
+      <c r="L6" s="2">
+        <v>8</v>
+      </c>
+      <c r="M6" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="24">
+      <c r="A7" s="2">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>10</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>8</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2</v>
+      </c>
+      <c r="L7" s="2">
+        <v>6</v>
+      </c>
+      <c r="M7" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="24">
+      <c r="A8" s="2">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>8</v>
+      </c>
+      <c r="I8" s="2">
+        <v>3</v>
+      </c>
+      <c r="J8" s="2">
+        <v>6</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>4</v>
+      </c>
+      <c r="M8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="24">
+      <c r="A9" s="2">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2">
+        <v>9</v>
+      </c>
+      <c r="G9" s="2">
+        <v>6</v>
+      </c>
+      <c r="H9" s="2">
+        <v>7</v>
+      </c>
+      <c r="I9" s="2">
+        <v>4</v>
+      </c>
+      <c r="J9" s="2">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2</v>
+      </c>
+      <c r="L9" s="2">
+        <v>3</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="24">
+      <c r="A10" s="2">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2">
+        <v>11</v>
+      </c>
+      <c r="G10" s="2">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2">
+        <v>9</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>7</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2">
+        <v>5</v>
+      </c>
+      <c r="M10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="24">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4</v>
+      </c>
+      <c r="F11" s="2">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>11</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>9</v>
+      </c>
+      <c r="K11" s="2">
+        <v>3</v>
+      </c>
+      <c r="L11" s="2">
+        <v>7</v>
+      </c>
+      <c r="M11" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="24">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>13</v>
+      </c>
+      <c r="I12" s="2">
+        <v>3</v>
+      </c>
+      <c r="J12" s="2">
+        <v>11</v>
+      </c>
+      <c r="K12" s="2">
+        <v>5</v>
+      </c>
+      <c r="L12" s="2">
+        <v>9</v>
+      </c>
+      <c r="M12" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="24">
+      <c r="A13" s="2">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2">
+        <v>12</v>
+      </c>
+      <c r="I13" s="2">
+        <v>5</v>
+      </c>
+      <c r="J13" s="2">
+        <v>13</v>
+      </c>
+      <c r="K13" s="2">
+        <v>7</v>
+      </c>
+      <c r="L13" s="2">
+        <v>11</v>
+      </c>
+      <c r="M13" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="24">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2">
+        <v>8</v>
+      </c>
+      <c r="G14" s="2">
+        <v>5</v>
+      </c>
+      <c r="H14" s="2">
+        <v>10</v>
+      </c>
+      <c r="I14" s="2">
+        <v>7</v>
+      </c>
+      <c r="J14" s="2">
+        <v>12</v>
+      </c>
+      <c r="K14" s="2">
+        <v>9</v>
+      </c>
+      <c r="L14" s="2">
+        <v>13</v>
+      </c>
+      <c r="M14" s="2">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E26D8C-E0B2-BE4B-AB65-9356AE64BE71}">
+  <dimension ref="A2:N14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="2" spans="1:14" ht="24">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2">
+        <v>11</v>
+      </c>
+      <c r="L2" s="2">
+        <v>12</v>
+      </c>
+      <c r="M2" s="2">
+        <v>13</v>
+      </c>
+      <c r="N2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="24">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2">
+        <v>14</v>
+      </c>
+      <c r="K3" s="2">
+        <v>9</v>
+      </c>
+      <c r="L3" s="2">
+        <v>13</v>
+      </c>
+      <c r="M3" s="2">
+        <v>7</v>
+      </c>
+      <c r="N3" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="24">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>12</v>
+      </c>
+      <c r="I4" s="2">
+        <v>5</v>
+      </c>
+      <c r="J4" s="2">
+        <v>13</v>
+      </c>
+      <c r="K4" s="2">
+        <v>7</v>
+      </c>
+      <c r="L4" s="2">
+        <v>11</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="24">
+      <c r="A5" s="2">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>11</v>
+      </c>
+      <c r="K5" s="2">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2">
+        <v>9</v>
+      </c>
+      <c r="M5" s="2">
+        <v>6</v>
+      </c>
+      <c r="N5" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="24">
+      <c r="A6" s="2">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>11</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>9</v>
+      </c>
+      <c r="K6" s="2">
+        <v>3</v>
+      </c>
+      <c r="L6" s="2">
+        <v>7</v>
+      </c>
+      <c r="M6" s="2">
+        <v>6</v>
+      </c>
+      <c r="N6" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="24">
+      <c r="A7" s="2">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>14</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>7</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>5</v>
+      </c>
+      <c r="M7" s="2">
+        <v>4</v>
+      </c>
+      <c r="N7" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="24">
+      <c r="A8" s="2">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2">
+        <v>6</v>
+      </c>
+      <c r="H8" s="2">
+        <v>7</v>
+      </c>
+      <c r="I8" s="2">
+        <v>4</v>
+      </c>
+      <c r="J8" s="2">
+        <v>5</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>14</v>
+      </c>
+      <c r="M8" s="2">
+        <v>2</v>
+      </c>
+      <c r="N8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="24">
+      <c r="A9" s="2">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>8</v>
+      </c>
+      <c r="I9" s="2">
+        <v>3</v>
+      </c>
+      <c r="J9" s="2">
+        <v>6</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2</v>
+      </c>
+      <c r="L9" s="2">
+        <v>14</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="24">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2">
+        <v>14</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>8</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>6</v>
+      </c>
+      <c r="M10" s="2">
+        <v>3</v>
+      </c>
+      <c r="N10" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="24">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>12</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>10</v>
+      </c>
+      <c r="K11" s="2">
+        <v>4</v>
+      </c>
+      <c r="L11" s="2">
+        <v>8</v>
+      </c>
+      <c r="M11" s="2">
+        <v>5</v>
+      </c>
+      <c r="N11" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="24">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>13</v>
+      </c>
+      <c r="I12" s="2">
+        <v>4</v>
+      </c>
+      <c r="J12" s="2">
+        <v>12</v>
+      </c>
+      <c r="K12" s="2">
+        <v>6</v>
+      </c>
+      <c r="L12" s="2">
+        <v>10</v>
+      </c>
+      <c r="M12" s="2">
+        <v>5</v>
+      </c>
+      <c r="N12" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="24">
+      <c r="A13" s="2">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2">
+        <v>14</v>
+      </c>
+      <c r="G13" s="2">
+        <v>4</v>
+      </c>
+      <c r="H13" s="2">
+        <v>11</v>
+      </c>
+      <c r="I13" s="2">
+        <v>6</v>
+      </c>
+      <c r="J13" s="2">
+        <v>13</v>
+      </c>
+      <c r="K13" s="2">
+        <v>8</v>
+      </c>
+      <c r="L13" s="2">
+        <v>12</v>
+      </c>
+      <c r="M13" s="2">
+        <v>2</v>
+      </c>
+      <c r="N13" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="24">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2">
+        <v>7</v>
+      </c>
+      <c r="G14" s="2">
+        <v>6</v>
+      </c>
+      <c r="H14" s="2">
+        <v>9</v>
+      </c>
+      <c r="I14" s="2">
+        <v>12</v>
+      </c>
+      <c r="J14" s="2">
+        <v>14</v>
+      </c>
+      <c r="K14" s="2">
+        <v>10</v>
+      </c>
+      <c r="L14" s="2">
+        <v>13</v>
+      </c>
+      <c r="M14" s="2">
+        <v>8</v>
+      </c>
+      <c r="N14" s="2">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70587A0-DE49-5949-9B77-4222DEBB7760}">
+  <dimension ref="A2:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="2" spans="1:12" ht="24">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4">
+        <v>8</v>
+      </c>
+      <c r="I2" s="5">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4">
+        <v>10</v>
+      </c>
+      <c r="K2" s="5">
+        <v>11</v>
+      </c>
+      <c r="L2" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="24">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3">
+        <v>9</v>
+      </c>
+      <c r="H3" s="4">
+        <v>12</v>
+      </c>
+      <c r="I3" s="5">
+        <v>7</v>
+      </c>
+      <c r="J3" s="4">
+        <v>11</v>
+      </c>
+      <c r="K3" s="5">
+        <v>5</v>
+      </c>
+      <c r="L3" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="24">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>11</v>
+      </c>
+      <c r="I4" s="5">
+        <v>5</v>
+      </c>
+      <c r="J4" s="4">
+        <v>9</v>
+      </c>
+      <c r="K4" s="5">
+        <v>2</v>
+      </c>
+      <c r="L4" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="24">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>9</v>
+      </c>
+      <c r="I5" s="5">
+        <v>3</v>
+      </c>
+      <c r="J5" s="4">
+        <v>7</v>
+      </c>
+      <c r="K5" s="5">
+        <v>6</v>
+      </c>
+      <c r="L5" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="24">
+      <c r="A6" s="3">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>7</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>5</v>
+      </c>
+      <c r="K6" s="5">
+        <v>4</v>
+      </c>
+      <c r="L6" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="24">
+      <c r="A7" s="3">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6</v>
+      </c>
+      <c r="F7" s="4">
+        <v>7</v>
+      </c>
+      <c r="G7" s="3">
+        <v>4</v>
+      </c>
+      <c r="H7" s="4">
+        <v>5</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4">
+        <v>12</v>
+      </c>
+      <c r="K7" s="5">
+        <v>2</v>
+      </c>
+      <c r="L7" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="24">
+      <c r="A8" s="3">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3</v>
+      </c>
+      <c r="H8" s="4">
+        <v>6</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2</v>
+      </c>
+      <c r="J8" s="4">
+        <v>12</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="24">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>8</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2</v>
+      </c>
+      <c r="J9" s="4">
+        <v>6</v>
+      </c>
+      <c r="K9" s="5">
+        <v>3</v>
+      </c>
+      <c r="L9" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="24">
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>11</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4">
+        <v>10</v>
+      </c>
+      <c r="I10" s="5">
+        <v>4</v>
+      </c>
+      <c r="J10" s="4">
+        <v>8</v>
+      </c>
+      <c r="K10" s="5">
+        <v>5</v>
+      </c>
+      <c r="L10" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="24">
+      <c r="A11" s="3">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4">
+        <v>12</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4">
+        <v>9</v>
+      </c>
+      <c r="G11" s="3">
+        <v>4</v>
+      </c>
+      <c r="H11" s="4">
+        <v>11</v>
+      </c>
+      <c r="I11" s="5">
+        <v>6</v>
+      </c>
+      <c r="J11" s="4">
+        <v>10</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="24">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4</v>
+      </c>
+      <c r="F12" s="4">
+        <v>7</v>
+      </c>
+      <c r="G12" s="3">
+        <v>10</v>
+      </c>
+      <c r="H12" s="4">
+        <v>12</v>
+      </c>
+      <c r="I12" s="5">
+        <v>8</v>
+      </c>
+      <c r="J12" s="4">
+        <v>11</v>
+      </c>
+      <c r="K12" s="5">
+        <v>6</v>
+      </c>
+      <c r="L12" s="4">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0609A30C-7F06-9649-86D2-47D9558E39AD}">
+  <dimension ref="A2:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F57DF4-64C8-5541-92CE-8A709EBDE856}">
+  <dimension ref="A2:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="2" spans="1:6" ht="24">
+      <c r="A2" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="24">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="24">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="24">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC8812E-5B20-E243-BCB3-06C4235D6300}">
+  <dimension ref="A2:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="2" spans="1:7" ht="24">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9">
+        <v>5</v>
+      </c>
+      <c r="E2" s="8">
+        <v>4</v>
+      </c>
+      <c r="F2" s="8">
+        <v>7</v>
+      </c>
+      <c r="G2" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="24">
+      <c r="A3" s="8">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>7</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2</v>
+      </c>
+      <c r="F3" s="9">
+        <v>6</v>
+      </c>
+      <c r="G3" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="24">
+      <c r="A4" s="8">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>4</v>
+      </c>
+      <c r="G4" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="24">
+      <c r="A5" s="8">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9">
+        <v>5</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2</v>
+      </c>
+      <c r="F5" s="9">
+        <v>3</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="24">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="9">
+        <v>7</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>5</v>
+      </c>
+      <c r="G6" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="24">
+      <c r="A7" s="8">
+        <v>2</v>
+      </c>
+      <c r="B7" s="9">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9">
+        <v>6</v>
+      </c>
+      <c r="E7" s="8">
+        <v>3</v>
+      </c>
+      <c r="F7" s="9">
+        <v>7</v>
+      </c>
+      <c r="G7" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="24">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="9">
+        <v>4</v>
+      </c>
+      <c r="E8" s="8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="9">
+        <v>6</v>
+      </c>
+      <c r="G8" s="9">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DAD426-4B63-2E4F-8252-CEDAAF6E24FC}">
+  <dimension ref="A2:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="24">
+      <c r="A2" s="2">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="24">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="24">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="24">
+      <c r="A5" s="2">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="24">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="24">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="24">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>6</v>
+      </c>
+      <c r="G8" s="2">
+        <v>7</v>
+      </c>
+      <c r="H8" s="2">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>